--- a/xlsx/世界各国和地区面积列表_intext.xlsx
+++ b/xlsx/世界各国和地区面积列表_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界政區索引</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界各国和地区面积列表</t>
+    <t>体育运动_体育运动_伊朗_世界各国和地区面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
